--- a/output/security_indices.xlsx
+++ b/output/security_indices.xlsx
@@ -560,44 +560,44 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>320</v>
+        <v>16350</v>
       </c>
       <c r="E2" t="n">
-        <v>20.18</v>
+        <v>24.88</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>15.15</v>
+        <v>19.45</v>
       </c>
       <c r="H2" t="n">
-        <v>19.96</v>
+        <v>25.42</v>
       </c>
       <c r="I2" t="n">
-        <v>18.96</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>33.07</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>24.82</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.97</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -611,46 +611,46 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>5929</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9</v>
+        <v>36.73</v>
       </c>
       <c r="F3" t="n">
-        <v>17.21</v>
+        <v>30.67</v>
       </c>
       <c r="G3" t="n">
-        <v>45.07</v>
+        <v>61.81</v>
       </c>
       <c r="H3" t="n">
-        <v>3.96</v>
+        <v>78.36</v>
       </c>
       <c r="I3" t="n">
-        <v>11.28</v>
+        <v>65.34</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>61.85</v>
       </c>
       <c r="K3" t="n">
-        <v>2.31</v>
+        <v>13.88</v>
       </c>
       <c r="L3" t="n">
-        <v>12.87</v>
+        <v>5.92</v>
       </c>
       <c r="M3" t="n">
-        <v>35.67</v>
+        <v>27.2</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>58.96</v>
       </c>
       <c r="O3" t="n">
-        <v>15.97</v>
+        <v>29.67</v>
       </c>
       <c r="P3" t="n">
-        <v>33.71</v>
+        <v>1.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -664,46 +664,46 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>276</v>
+        <v>5558</v>
       </c>
       <c r="E4" t="n">
-        <v>6.56</v>
+        <v>30.41</v>
       </c>
       <c r="F4" t="n">
-        <v>16.06</v>
+        <v>32.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>43.57</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>50.78</v>
       </c>
       <c r="K4" t="n">
-        <v>2.23</v>
+        <v>19.9</v>
       </c>
       <c r="L4" t="n">
-        <v>12.54</v>
+        <v>10.17</v>
       </c>
       <c r="M4" t="n">
-        <v>25.66</v>
+        <v>31.36</v>
       </c>
       <c r="N4" t="n">
-        <v>18.82</v>
+        <v>71.04</v>
       </c>
       <c r="O4" t="n">
-        <v>7.78</v>
+        <v>24.53</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="5">
@@ -717,46 +717,46 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>188</v>
+        <v>5767</v>
       </c>
       <c r="E5" t="n">
-        <v>16.72</v>
+        <v>28.99</v>
       </c>
       <c r="F5" t="n">
-        <v>16.99</v>
+        <v>31.24</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9</v>
+        <v>34.83</v>
       </c>
       <c r="H5" t="n">
-        <v>56.63</v>
+        <v>32.93</v>
       </c>
       <c r="I5" t="n">
-        <v>16.13</v>
+        <v>81.49</v>
       </c>
       <c r="J5" t="n">
+        <v>51.36</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>40.14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="O5" t="n">
-        <v>34.28</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="6">
@@ -770,46 +770,46 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>230</v>
+        <v>3930</v>
       </c>
       <c r="E6" t="n">
-        <v>27.69</v>
+        <v>34.32</v>
       </c>
       <c r="F6" t="n">
-        <v>23.44</v>
+        <v>29.89</v>
       </c>
       <c r="G6" t="n">
-        <v>31.63</v>
+        <v>42.14</v>
       </c>
       <c r="H6" t="n">
-        <v>13.89</v>
+        <v>50.1</v>
       </c>
       <c r="I6" t="n">
-        <v>13.19</v>
+        <v>69.68</v>
       </c>
       <c r="J6" t="n">
-        <v>3.19</v>
+        <v>41.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4</v>
+        <v>37.85</v>
       </c>
       <c r="L6" t="n">
-        <v>75.24</v>
+        <v>10.01</v>
       </c>
       <c r="M6" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3.09</v>
+        <v>45.95</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.12</v>
       </c>
       <c r="P6" t="n">
-        <v>78.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.67</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="7">
@@ -823,46 +823,46 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>272</v>
+        <v>5818</v>
       </c>
       <c r="E7" t="n">
-        <v>25.91</v>
+        <v>26.35</v>
       </c>
       <c r="F7" t="n">
-        <v>22.28</v>
+        <v>30.37</v>
       </c>
       <c r="G7" t="n">
-        <v>17.83</v>
+        <v>10.55</v>
       </c>
       <c r="H7" t="n">
-        <v>19.57</v>
+        <v>21.57</v>
       </c>
       <c r="I7" t="n">
-        <v>33.46</v>
+        <v>34.27</v>
       </c>
       <c r="J7" t="n">
-        <v>16.19</v>
+        <v>84.81</v>
       </c>
       <c r="K7" t="n">
-        <v>14.88</v>
+        <v>27.92</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="M7" t="n">
-        <v>26.97</v>
+        <v>16.49</v>
       </c>
       <c r="N7" t="n">
-        <v>12.46</v>
+        <v>37.94</v>
       </c>
       <c r="O7" t="n">
-        <v>19.75</v>
+        <v>24.88</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>3.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.93</v>
+        <v>9.96</v>
       </c>
     </row>
     <row r="8">
@@ -876,46 +876,46 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>449</v>
+        <v>7932</v>
       </c>
       <c r="E8" t="n">
-        <v>13.25</v>
+        <v>30.45</v>
       </c>
       <c r="F8" t="n">
-        <v>18.18</v>
+        <v>29.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="H8" t="n">
-        <v>42.68</v>
+        <v>28.23</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.06</v>
       </c>
       <c r="J8" t="n">
-        <v>3.81</v>
+        <v>82.28</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>36.77</v>
       </c>
       <c r="L8" t="n">
-        <v>7.71</v>
+        <v>28.59</v>
       </c>
       <c r="M8" t="n">
-        <v>25.33</v>
+        <v>13.12</v>
       </c>
       <c r="N8" t="n">
-        <v>29.37</v>
+        <v>43.03</v>
       </c>
       <c r="O8" t="n">
-        <v>16.75</v>
+        <v>15.73</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.07</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="9">
@@ -929,46 +929,46 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>609</v>
+        <v>7000</v>
       </c>
       <c r="E9" t="n">
-        <v>15.4</v>
+        <v>31.38</v>
       </c>
       <c r="F9" t="n">
-        <v>12.16</v>
+        <v>31.49</v>
       </c>
       <c r="G9" t="n">
-        <v>15.93</v>
+        <v>26.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>54.14</v>
       </c>
       <c r="I9" t="n">
-        <v>9.96</v>
+        <v>14.77</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>9.03</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>42.75</v>
       </c>
       <c r="L9" t="n">
-        <v>34.1</v>
+        <v>89.35</v>
       </c>
       <c r="M9" t="n">
-        <v>21.14</v>
+        <v>15.91</v>
       </c>
       <c r="N9" t="n">
-        <v>24.4</v>
+        <v>26.91</v>
       </c>
       <c r="O9" t="n">
-        <v>15.88</v>
+        <v>24.52</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.09</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="10">
@@ -982,46 +982,46 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>789</v>
+        <v>5442</v>
       </c>
       <c r="E10" t="n">
-        <v>7.85</v>
+        <v>32.63</v>
       </c>
       <c r="F10" t="n">
-        <v>13.46</v>
+        <v>32.21</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.27</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>57.45</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>40.81</v>
       </c>
       <c r="J10" t="n">
-        <v>0.93</v>
+        <v>35.13</v>
       </c>
       <c r="K10" t="n">
-        <v>5.27</v>
+        <v>40.18</v>
       </c>
       <c r="L10" t="n">
-        <v>39.48</v>
+        <v>20.22</v>
       </c>
       <c r="M10" t="n">
-        <v>6.72</v>
+        <v>6.77</v>
       </c>
       <c r="N10" t="n">
-        <v>7.18</v>
+        <v>26.86</v>
       </c>
       <c r="O10" t="n">
-        <v>19.06</v>
+        <v>21.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.97</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="11">
@@ -1035,46 +1035,46 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1915</v>
+        <v>5624</v>
       </c>
       <c r="E11" t="n">
-        <v>17.13</v>
+        <v>32.63</v>
       </c>
       <c r="F11" t="n">
-        <v>14.86</v>
+        <v>31.56</v>
       </c>
       <c r="G11" t="n">
-        <v>26.59</v>
+        <v>54.57</v>
       </c>
       <c r="H11" t="n">
-        <v>11.12</v>
+        <v>28.04</v>
       </c>
       <c r="I11" t="n">
-        <v>14.26</v>
+        <v>83.26</v>
       </c>
       <c r="J11" t="n">
-        <v>6.64</v>
+        <v>47.19</v>
       </c>
       <c r="K11" t="n">
-        <v>8.31</v>
+        <v>34.9</v>
       </c>
       <c r="L11" t="n">
-        <v>11.75</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>4.48</v>
+        <v>19.22</v>
       </c>
       <c r="N11" t="n">
-        <v>15.21</v>
+        <v>38.75</v>
       </c>
       <c r="O11" t="n">
-        <v>42.63</v>
+        <v>17.81</v>
       </c>
       <c r="P11" t="n">
-        <v>18.94</v>
+        <v>7.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.5</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="12">
@@ -1088,46 +1088,46 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>792</v>
+        <v>6213</v>
       </c>
       <c r="E12" t="n">
-        <v>19.59</v>
+        <v>29.41</v>
       </c>
       <c r="F12" t="n">
-        <v>16.43</v>
+        <v>34.39</v>
       </c>
       <c r="G12" t="n">
-        <v>9.18</v>
+        <v>54.19</v>
       </c>
       <c r="H12" t="n">
-        <v>53.77</v>
+        <v>43.32</v>
       </c>
       <c r="I12" t="n">
-        <v>15.32</v>
+        <v>32.83</v>
       </c>
       <c r="J12" t="n">
-        <v>8.96</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4.84</v>
+        <v>22.41</v>
       </c>
       <c r="L12" t="n">
-        <v>13.11</v>
+        <v>4.01</v>
       </c>
       <c r="M12" t="n">
-        <v>8.77</v>
+        <v>8.43</v>
       </c>
       <c r="N12" t="n">
-        <v>31.13</v>
+        <v>32.46</v>
       </c>
       <c r="O12" t="n">
-        <v>8.14</v>
+        <v>14.98</v>
       </c>
       <c r="P12" t="n">
-        <v>45.79</v>
+        <v>1.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.5</v>
+        <v>9.54</v>
       </c>
     </row>
     <row r="13">
@@ -1141,46 +1141,46 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>976</v>
+        <v>6056</v>
       </c>
       <c r="E13" t="n">
-        <v>12.57</v>
+        <v>41.11</v>
       </c>
       <c r="F13" t="n">
-        <v>18.17</v>
+        <v>35.45</v>
       </c>
       <c r="G13" t="n">
-        <v>17.39</v>
+        <v>69.92</v>
       </c>
       <c r="H13" t="n">
-        <v>4.36</v>
+        <v>63.23</v>
       </c>
       <c r="I13" t="n">
-        <v>6.22</v>
+        <v>68.37</v>
       </c>
       <c r="J13" t="n">
-        <v>4.51</v>
+        <v>77.48</v>
       </c>
       <c r="K13" t="n">
-        <v>9.65</v>
+        <v>42.17</v>
       </c>
       <c r="L13" t="n">
-        <v>7.09</v>
+        <v>10.03</v>
       </c>
       <c r="M13" t="n">
-        <v>3.96</v>
+        <v>15.38</v>
       </c>
       <c r="N13" t="n">
-        <v>10.28</v>
+        <v>37.36</v>
       </c>
       <c r="O13" t="n">
-        <v>48.43</v>
+        <v>37.63</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>12.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.43</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="14">
@@ -1194,46 +1194,46 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1805</v>
+        <v>5427</v>
       </c>
       <c r="E14" t="n">
-        <v>22.35</v>
+        <v>35.83</v>
       </c>
       <c r="F14" t="n">
-        <v>22.34</v>
+        <v>40.22</v>
       </c>
       <c r="G14" t="n">
-        <v>40.3</v>
+        <v>25.49</v>
       </c>
       <c r="H14" t="n">
-        <v>8.26</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>6.72</v>
+        <v>60.25</v>
       </c>
       <c r="J14" t="n">
-        <v>6.1</v>
+        <v>42.66</v>
       </c>
       <c r="K14" t="n">
-        <v>5.79</v>
+        <v>44.34</v>
       </c>
       <c r="L14" t="n">
-        <v>46.02</v>
+        <v>21.98</v>
       </c>
       <c r="M14" t="n">
-        <v>5.78</v>
+        <v>7.34</v>
       </c>
       <c r="N14" t="n">
-        <v>28.22</v>
+        <v>50.21</v>
       </c>
       <c r="O14" t="n">
-        <v>29.16</v>
+        <v>25.42</v>
       </c>
       <c r="P14" t="n">
-        <v>5.02</v>
+        <v>7.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.49</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="15">
@@ -1247,46 +1247,46 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2352</v>
+        <v>5394</v>
       </c>
       <c r="E15" t="n">
-        <v>32.09</v>
+        <v>43.71</v>
       </c>
       <c r="F15" t="n">
-        <v>30.55</v>
+        <v>39.5</v>
       </c>
       <c r="G15" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>69.51</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="J15" t="n">
+        <v>95.61</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="P15" t="n">
         <v>100</v>
       </c>
-      <c r="H15" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.22</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L15" t="n">
-        <v>42.68</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="O15" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>100</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="16">
@@ -1300,46 +1300,46 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2750</v>
+        <v>5527</v>
       </c>
       <c r="E16" t="n">
-        <v>37.2</v>
+        <v>38.96</v>
       </c>
       <c r="F16" t="n">
-        <v>30.53</v>
+        <v>40.06</v>
       </c>
       <c r="G16" t="n">
-        <v>67.89</v>
+        <v>55.01</v>
       </c>
       <c r="H16" t="n">
-        <v>42.2</v>
+        <v>65.63</v>
       </c>
       <c r="I16" t="n">
-        <v>4.41</v>
+        <v>28.97</v>
       </c>
       <c r="J16" t="n">
-        <v>3.91</v>
+        <v>38.03</v>
       </c>
       <c r="K16" t="n">
-        <v>8.83</v>
+        <v>17.62</v>
       </c>
       <c r="L16" t="n">
-        <v>61.67</v>
+        <v>44.34</v>
       </c>
       <c r="M16" t="n">
-        <v>2.49</v>
+        <v>7.91</v>
       </c>
       <c r="N16" t="n">
-        <v>66.24</v>
+        <v>41.36</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.5</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="17">
@@ -1353,46 +1353,46 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1653</v>
+        <v>5394</v>
       </c>
       <c r="E17" t="n">
-        <v>22.3</v>
+        <v>37.51</v>
       </c>
       <c r="F17" t="n">
-        <v>30.14</v>
+        <v>36.87</v>
       </c>
       <c r="G17" t="n">
-        <v>46.94</v>
+        <v>60.94</v>
       </c>
       <c r="H17" t="n">
-        <v>27.05</v>
+        <v>34.26</v>
       </c>
       <c r="I17" t="n">
-        <v>7.34</v>
+        <v>61.96</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>56.67</v>
       </c>
       <c r="K17" t="n">
-        <v>18.14</v>
+        <v>30.87</v>
       </c>
       <c r="L17" t="n">
-        <v>40.83</v>
+        <v>16.01</v>
       </c>
       <c r="M17" t="n">
-        <v>3.02</v>
+        <v>26.63</v>
       </c>
       <c r="N17" t="n">
-        <v>19.4</v>
+        <v>25.42</v>
       </c>
       <c r="O17" t="n">
-        <v>37.04</v>
+        <v>76.87</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.49</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="18">
@@ -1406,46 +1406,46 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1678</v>
+        <v>5269</v>
       </c>
       <c r="E18" t="n">
-        <v>30.92</v>
+        <v>34.13</v>
       </c>
       <c r="F18" t="n">
-        <v>24.11</v>
+        <v>32.99</v>
       </c>
       <c r="G18" t="n">
-        <v>73.7</v>
+        <v>31.34</v>
       </c>
       <c r="H18" t="n">
-        <v>23.48</v>
+        <v>43.33</v>
       </c>
       <c r="I18" t="n">
-        <v>84.96</v>
+        <v>38.64</v>
       </c>
       <c r="J18" t="n">
-        <v>2.48</v>
+        <v>77.11</v>
       </c>
       <c r="K18" t="n">
-        <v>14.06</v>
+        <v>30.09</v>
       </c>
       <c r="L18" t="n">
-        <v>29.91</v>
+        <v>15.7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.93</v>
+        <v>6.08</v>
       </c>
       <c r="N18" t="n">
-        <v>38.5</v>
+        <v>48.62</v>
       </c>
       <c r="O18" t="n">
-        <v>21.13</v>
+        <v>58.08</v>
       </c>
       <c r="P18" t="n">
-        <v>16.21</v>
+        <v>6.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.74</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="19">
@@ -1459,46 +1459,46 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2422</v>
+        <v>6370</v>
       </c>
       <c r="E19" t="n">
-        <v>19.11</v>
+        <v>27.32</v>
       </c>
       <c r="F19" t="n">
-        <v>26.75</v>
+        <v>30.83</v>
       </c>
       <c r="G19" t="n">
-        <v>27.03</v>
+        <v>17.06</v>
       </c>
       <c r="H19" t="n">
-        <v>25.06</v>
+        <v>18.84</v>
       </c>
       <c r="I19" t="n">
-        <v>7.51</v>
+        <v>22.58</v>
       </c>
       <c r="J19" t="n">
-        <v>9.19</v>
+        <v>71.56</v>
       </c>
       <c r="K19" t="n">
-        <v>80.78</v>
+        <v>33.85</v>
       </c>
       <c r="L19" t="n">
-        <v>12.86</v>
+        <v>23.43</v>
       </c>
       <c r="M19" t="n">
-        <v>3.01</v>
+        <v>11.42</v>
       </c>
       <c r="N19" t="n">
-        <v>23.8</v>
+        <v>37.08</v>
       </c>
       <c r="O19" t="n">
-        <v>15.52</v>
+        <v>40.62</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.39</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="20">
@@ -1512,46 +1512,46 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1921</v>
+        <v>7235</v>
       </c>
       <c r="E20" t="n">
-        <v>30.24</v>
+        <v>31.03</v>
       </c>
       <c r="F20" t="n">
-        <v>29.47</v>
+        <v>30.41</v>
       </c>
       <c r="G20" t="n">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>19.95</v>
+        <v>53.95</v>
       </c>
       <c r="I20" t="n">
-        <v>17.37</v>
+        <v>45.42</v>
       </c>
       <c r="J20" t="n">
-        <v>8.15</v>
+        <v>24.64</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>31.59</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>36.82</v>
+        <v>50.85</v>
       </c>
       <c r="O20" t="n">
-        <v>21.81</v>
+        <v>21.34</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.39</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="21">
@@ -1565,46 +1565,46 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1991</v>
+        <v>8964</v>
       </c>
       <c r="E21" t="n">
-        <v>39.07</v>
+        <v>32.87</v>
       </c>
       <c r="F21" t="n">
-        <v>30.33</v>
+        <v>32.21</v>
       </c>
       <c r="G21" t="n">
-        <v>15.83</v>
+        <v>37.24</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>57.71</v>
       </c>
       <c r="I21" t="n">
-        <v>19.81</v>
+        <v>18.67</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>44.61</v>
       </c>
       <c r="K21" t="n">
-        <v>5.42</v>
+        <v>53.66</v>
       </c>
       <c r="L21" t="n">
-        <v>99.09</v>
+        <v>63.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.9</v>
+        <v>3.61</v>
       </c>
       <c r="N21" t="n">
-        <v>15.51</v>
+        <v>18.98</v>
       </c>
       <c r="O21" t="n">
-        <v>10.79</v>
+        <v>19.24</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.37</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="22">
@@ -1618,46 +1618,46 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>2329</v>
+        <v>6091</v>
       </c>
       <c r="E22" t="n">
-        <v>21.68</v>
+        <v>32.73</v>
       </c>
       <c r="F22" t="n">
-        <v>28.03</v>
+        <v>34.06</v>
       </c>
       <c r="G22" t="n">
-        <v>26.03</v>
+        <v>29.68</v>
       </c>
       <c r="H22" t="n">
-        <v>76.8</v>
+        <v>45.57</v>
       </c>
       <c r="I22" t="n">
-        <v>16.93</v>
+        <v>32.12</v>
       </c>
       <c r="J22" t="n">
-        <v>7.88</v>
+        <v>60.32</v>
       </c>
       <c r="K22" t="n">
-        <v>6.28</v>
+        <v>35.35</v>
       </c>
       <c r="L22" t="n">
-        <v>49.04</v>
+        <v>9.78</v>
       </c>
       <c r="M22" t="n">
-        <v>2.53</v>
+        <v>11.25</v>
       </c>
       <c r="N22" t="n">
-        <v>11.2</v>
+        <v>33.68</v>
       </c>
       <c r="O22" t="n">
-        <v>21.68</v>
+        <v>37.26</v>
       </c>
       <c r="P22" t="n">
-        <v>3.89</v>
+        <v>6.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.22</v>
+        <v>58.81</v>
       </c>
     </row>
     <row r="23">
@@ -1671,46 +1671,46 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>2054</v>
+        <v>6427</v>
       </c>
       <c r="E23" t="n">
-        <v>23.33</v>
+        <v>36.59</v>
       </c>
       <c r="F23" t="n">
-        <v>25.1</v>
+        <v>37.78</v>
       </c>
       <c r="G23" t="n">
-        <v>23.61</v>
+        <v>37.4</v>
       </c>
       <c r="H23" t="n">
-        <v>27.47</v>
+        <v>62.9</v>
       </c>
       <c r="I23" t="n">
-        <v>31.01</v>
+        <v>47.65</v>
       </c>
       <c r="J23" t="n">
-        <v>23.58</v>
+        <v>64.29</v>
       </c>
       <c r="K23" t="n">
-        <v>2.45</v>
+        <v>38.34</v>
       </c>
       <c r="L23" t="n">
-        <v>34.55</v>
+        <v>10.49</v>
       </c>
       <c r="M23" t="n">
-        <v>6.73</v>
+        <v>1.32</v>
       </c>
       <c r="N23" t="n">
-        <v>19.85</v>
+        <v>39.51</v>
       </c>
       <c r="O23" t="n">
-        <v>40.79</v>
+        <v>61.05</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>12.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.61</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="24">
@@ -1724,46 +1724,46 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1269</v>
+        <v>4993</v>
       </c>
       <c r="E24" t="n">
-        <v>30.29</v>
+        <v>44.02</v>
       </c>
       <c r="F24" t="n">
-        <v>26.08</v>
+        <v>38.97</v>
       </c>
       <c r="G24" t="n">
-        <v>59.23</v>
+        <v>25.92</v>
       </c>
       <c r="H24" t="n">
-        <v>36.92</v>
+        <v>92.63</v>
       </c>
       <c r="I24" t="n">
-        <v>28.68</v>
+        <v>85.91</v>
       </c>
       <c r="J24" t="n">
-        <v>3.47</v>
+        <v>45.28</v>
       </c>
       <c r="K24" t="n">
-        <v>7.38</v>
+        <v>46.93</v>
       </c>
       <c r="L24" t="n">
-        <v>23.18</v>
+        <v>10.97</v>
       </c>
       <c r="M24" t="n">
-        <v>2.6</v>
+        <v>16.61</v>
       </c>
       <c r="N24" t="n">
-        <v>2.72</v>
+        <v>15.4</v>
       </c>
       <c r="O24" t="n">
-        <v>66.03</v>
+        <v>90.81</v>
       </c>
       <c r="P24" t="n">
-        <v>7.14</v>
+        <v>15.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.86</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="25">
@@ -1777,46 +1777,46 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>1506</v>
+        <v>5027</v>
       </c>
       <c r="E25" t="n">
-        <v>24.6</v>
+        <v>36.31</v>
       </c>
       <c r="F25" t="n">
-        <v>22.29</v>
+        <v>37.91</v>
       </c>
       <c r="G25" t="n">
-        <v>30.59</v>
+        <v>27.23</v>
       </c>
       <c r="H25" t="n">
-        <v>18.38</v>
+        <v>39.07</v>
       </c>
       <c r="I25" t="n">
-        <v>8.06</v>
+        <v>63.37</v>
       </c>
       <c r="J25" t="n">
-        <v>15.92</v>
+        <v>57.97</v>
       </c>
       <c r="K25" t="n">
-        <v>12.28</v>
+        <v>47.85</v>
       </c>
       <c r="L25" t="n">
-        <v>39.07</v>
+        <v>9.9</v>
       </c>
       <c r="M25" t="n">
-        <v>5.03</v>
+        <v>12.78</v>
       </c>
       <c r="N25" t="n">
-        <v>54.4</v>
+        <v>39.9</v>
       </c>
       <c r="O25" t="n">
-        <v>34.24</v>
+        <v>65.36</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="26">
@@ -1830,46 +1830,46 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3234</v>
+        <v>6021</v>
       </c>
       <c r="E26" t="n">
-        <v>11.99</v>
+        <v>33.41</v>
       </c>
       <c r="F26" t="n">
-        <v>17.32</v>
+        <v>36.68</v>
       </c>
       <c r="G26" t="n">
-        <v>31.49</v>
+        <v>38.78</v>
       </c>
       <c r="H26" t="n">
-        <v>17.78</v>
+        <v>41.19</v>
       </c>
       <c r="I26" t="n">
-        <v>10.32</v>
+        <v>67.96</v>
       </c>
       <c r="J26" t="n">
-        <v>7.79</v>
+        <v>45.61</v>
       </c>
       <c r="K26" t="n">
-        <v>5.13</v>
+        <v>41.05</v>
       </c>
       <c r="L26" t="n">
-        <v>17.66</v>
+        <v>9.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.75</v>
+        <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="O26" t="n">
-        <v>9.96</v>
+        <v>29.59</v>
       </c>
       <c r="P26" t="n">
-        <v>2.8</v>
+        <v>14.37</v>
       </c>
       <c r="Q26" t="n">
-        <v>27.17</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="27">
@@ -1883,46 +1883,46 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>1405</v>
+        <v>6669</v>
       </c>
       <c r="E27" t="n">
-        <v>15.37</v>
+        <v>40.31</v>
       </c>
       <c r="F27" t="n">
-        <v>14.56</v>
+        <v>35.91</v>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>25.6</v>
       </c>
       <c r="H27" t="n">
-        <v>6.06</v>
+        <v>55.29</v>
       </c>
       <c r="I27" t="n">
-        <v>12.95</v>
+        <v>57.46</v>
       </c>
       <c r="J27" t="n">
-        <v>5.74</v>
+        <v>65.68</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2</v>
+        <v>10.54</v>
       </c>
       <c r="L27" t="n">
-        <v>28.33</v>
+        <v>8.8</v>
       </c>
       <c r="M27" t="n">
-        <v>4.67</v>
+        <v>46.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.24</v>
+        <v>89.62</v>
       </c>
       <c r="O27" t="n">
-        <v>24.47</v>
+        <v>25.45</v>
       </c>
       <c r="P27" t="n">
-        <v>25.81</v>
+        <v>11.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.87</v>
+        <v>47.09</v>
       </c>
     </row>
     <row r="28">
@@ -1936,46 +1936,46 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1848</v>
+        <v>6079</v>
       </c>
       <c r="E28" t="n">
-        <v>16.33</v>
+        <v>34.02</v>
       </c>
       <c r="F28" t="n">
-        <v>15.06</v>
+        <v>38.76</v>
       </c>
       <c r="G28" t="n">
-        <v>52.48</v>
+        <v>42.82</v>
       </c>
       <c r="H28" t="n">
-        <v>18.44</v>
+        <v>55.88</v>
       </c>
       <c r="I28" t="n">
-        <v>13.13</v>
+        <v>39.86</v>
       </c>
       <c r="J28" t="n">
-        <v>6.49</v>
+        <v>79.85</v>
       </c>
       <c r="K28" t="n">
-        <v>5.19</v>
+        <v>21.22</v>
       </c>
       <c r="L28" t="n">
-        <v>13.11</v>
+        <v>9.2</v>
       </c>
       <c r="M28" t="n">
-        <v>7.22</v>
+        <v>8.67</v>
       </c>
       <c r="N28" t="n">
-        <v>3.56</v>
+        <v>42.72</v>
       </c>
       <c r="O28" t="n">
-        <v>18.02</v>
+        <v>43.46</v>
       </c>
       <c r="P28" t="n">
-        <v>4.91</v>
+        <v>18.37</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.04</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="29">
@@ -1989,46 +1989,46 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>959</v>
+        <v>5740</v>
       </c>
       <c r="E29" t="n">
-        <v>13.49</v>
+        <v>41.95</v>
       </c>
       <c r="F29" t="n">
-        <v>13.37</v>
+        <v>39.39</v>
       </c>
       <c r="G29" t="n">
-        <v>25.28</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>9.99</v>
+        <v>57.1</v>
       </c>
       <c r="I29" t="n">
-        <v>9.49</v>
+        <v>72.9</v>
       </c>
       <c r="J29" t="n">
-        <v>10.71</v>
+        <v>88.82</v>
       </c>
       <c r="K29" t="n">
-        <v>1.49</v>
+        <v>33.4</v>
       </c>
       <c r="L29" t="n">
-        <v>10.83</v>
+        <v>9.31</v>
       </c>
       <c r="M29" t="n">
-        <v>4.34</v>
+        <v>2.13</v>
       </c>
       <c r="N29" t="n">
-        <v>21.79</v>
+        <v>19.39</v>
       </c>
       <c r="O29" t="n">
-        <v>2.24</v>
+        <v>39.81</v>
       </c>
       <c r="P29" t="n">
-        <v>9.45</v>
+        <v>15.12</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.82</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="30">
@@ -2042,46 +2042,46 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>793</v>
+        <v>5605</v>
       </c>
       <c r="E30" t="n">
-        <v>10.29</v>
+        <v>42.18</v>
       </c>
       <c r="F30" t="n">
-        <v>12.16</v>
+        <v>39.15</v>
       </c>
       <c r="G30" t="n">
-        <v>21.4</v>
+        <v>53.94</v>
       </c>
       <c r="H30" t="n">
-        <v>5.37</v>
+        <v>18.59</v>
       </c>
       <c r="I30" t="n">
-        <v>22.95</v>
+        <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>4.63</v>
+        <v>54</v>
       </c>
       <c r="K30" t="n">
-        <v>5.04</v>
+        <v>20.79</v>
       </c>
       <c r="L30" t="n">
-        <v>10.91</v>
+        <v>7.49</v>
       </c>
       <c r="M30" t="n">
-        <v>3.39</v>
+        <v>27.01</v>
       </c>
       <c r="N30" t="n">
-        <v>3.72</v>
+        <v>70.71</v>
       </c>
       <c r="O30" t="n">
-        <v>33.87</v>
+        <v>69.72</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="31">
@@ -2095,46 +2095,46 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>904</v>
+        <v>6049</v>
       </c>
       <c r="E31" t="n">
-        <v>12.71</v>
+        <v>33.31</v>
       </c>
       <c r="F31" t="n">
-        <v>13.87</v>
+        <v>34.5</v>
       </c>
       <c r="G31" t="n">
-        <v>18.78</v>
+        <v>24.81</v>
       </c>
       <c r="H31" t="n">
-        <v>11.78</v>
+        <v>15.14</v>
       </c>
       <c r="I31" t="n">
-        <v>30.2</v>
+        <v>64.98</v>
       </c>
       <c r="J31" t="n">
-        <v>3.52</v>
+        <v>59.32</v>
       </c>
       <c r="K31" t="n">
-        <v>14.81</v>
+        <v>57.32</v>
       </c>
       <c r="L31" t="n">
-        <v>24.89</v>
+        <v>11.09</v>
       </c>
       <c r="M31" t="n">
-        <v>3.54</v>
+        <v>9.46</v>
       </c>
       <c r="N31" t="n">
-        <v>6.16</v>
+        <v>29.16</v>
       </c>
       <c r="O31" t="n">
-        <v>19.01</v>
+        <v>18.9</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>32.82</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.09</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="32">
@@ -2148,46 +2148,46 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>964</v>
+        <v>8112</v>
       </c>
       <c r="E32" t="n">
-        <v>18.61</v>
+        <v>28.01</v>
       </c>
       <c r="F32" t="n">
-        <v>16.07</v>
+        <v>30.58</v>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="H32" t="n">
-        <v>14.36</v>
+        <v>35.96</v>
       </c>
       <c r="I32" t="n">
-        <v>18.88</v>
+        <v>33.47</v>
       </c>
       <c r="J32" t="n">
-        <v>29.94</v>
+        <v>27.54</v>
       </c>
       <c r="K32" t="n">
-        <v>6.73</v>
+        <v>30.01</v>
       </c>
       <c r="L32" t="n">
-        <v>25.13</v>
+        <v>46.98</v>
       </c>
       <c r="M32" t="n">
-        <v>8.72</v>
+        <v>26.47</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>42.56</v>
       </c>
       <c r="O32" t="n">
-        <v>39</v>
+        <v>21.08</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.63</v>
+        <v>41.68</v>
       </c>
     </row>
     <row r="33">
@@ -2201,46 +2201,46 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>1184</v>
+        <v>7499</v>
       </c>
       <c r="E33" t="n">
-        <v>16.88</v>
+        <v>30.43</v>
       </c>
       <c r="F33" t="n">
-        <v>19.97</v>
+        <v>32.32</v>
       </c>
       <c r="G33" t="n">
-        <v>36.86</v>
+        <v>69.93</v>
       </c>
       <c r="H33" t="n">
-        <v>25.18</v>
+        <v>25.89</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.97</v>
       </c>
       <c r="J33" t="n">
-        <v>15.29</v>
+        <v>39.55</v>
       </c>
       <c r="K33" t="n">
-        <v>7.82</v>
+        <v>39.11</v>
       </c>
       <c r="L33" t="n">
-        <v>39.47</v>
+        <v>14.59</v>
       </c>
       <c r="M33" t="n">
-        <v>12.27</v>
+        <v>19.96</v>
       </c>
       <c r="N33" t="n">
-        <v>10.62</v>
+        <v>49.2</v>
       </c>
       <c r="O33" t="n">
-        <v>24.5</v>
+        <v>19.4</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.7</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="34">
@@ -2254,46 +2254,46 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>1451</v>
+        <v>5889</v>
       </c>
       <c r="E34" t="n">
-        <v>24.41</v>
+        <v>38.53</v>
       </c>
       <c r="F34" t="n">
-        <v>20.22</v>
+        <v>35.75</v>
       </c>
       <c r="G34" t="n">
-        <v>58.49</v>
+        <v>96.16</v>
       </c>
       <c r="H34" t="n">
-        <v>18.34</v>
+        <v>41.73</v>
       </c>
       <c r="I34" t="n">
-        <v>37.63</v>
+        <v>73.62</v>
       </c>
       <c r="J34" t="n">
-        <v>7.08</v>
+        <v>67.63</v>
       </c>
       <c r="K34" t="n">
-        <v>2.65</v>
+        <v>35.09</v>
       </c>
       <c r="L34" t="n">
-        <v>60.83</v>
+        <v>9.69</v>
       </c>
       <c r="M34" t="n">
-        <v>7.74</v>
+        <v>6.52</v>
       </c>
       <c r="N34" t="n">
-        <v>12.25</v>
+        <v>32.77</v>
       </c>
       <c r="O34" t="n">
-        <v>19.99</v>
+        <v>26.78</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.48</v>
+        <v>32.61</v>
       </c>
     </row>
     <row r="35">
@@ -2307,46 +2307,46 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>874</v>
+        <v>5986</v>
       </c>
       <c r="E35" t="n">
-        <v>19.37</v>
+        <v>38.29</v>
       </c>
       <c r="F35" t="n">
-        <v>23.1</v>
+        <v>38.08</v>
       </c>
       <c r="G35" t="n">
-        <v>36.07</v>
+        <v>56.45</v>
       </c>
       <c r="H35" t="n">
-        <v>25.58</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>13.88</v>
+        <v>45.93</v>
       </c>
       <c r="J35" t="n">
-        <v>4.48</v>
+        <v>34.15</v>
       </c>
       <c r="K35" t="n">
-        <v>2.64</v>
+        <v>45.95</v>
       </c>
       <c r="L35" t="n">
-        <v>25.74</v>
+        <v>30.2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="N35" t="n">
-        <v>7.44</v>
+        <v>42.51</v>
       </c>
       <c r="O35" t="n">
-        <v>35.64</v>
+        <v>98.66</v>
       </c>
       <c r="P35" t="n">
-        <v>20.75</v>
+        <v>13.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.87</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="36">
@@ -2360,46 +2360,46 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>728</v>
+        <v>5557</v>
       </c>
       <c r="E36" t="n">
-        <v>25.51</v>
+        <v>37.43</v>
       </c>
       <c r="F36" t="n">
-        <v>20.78</v>
+        <v>37.13</v>
       </c>
       <c r="G36" t="n">
-        <v>39.97</v>
+        <v>45.15</v>
       </c>
       <c r="H36" t="n">
-        <v>5.85</v>
+        <v>17.39</v>
       </c>
       <c r="I36" t="n">
-        <v>100</v>
+        <v>85.03</v>
       </c>
       <c r="J36" t="n">
-        <v>7.73</v>
+        <v>90.42</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>49.83</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>8.79</v>
       </c>
       <c r="N36" t="n">
-        <v>16.55</v>
+        <v>17.25</v>
       </c>
       <c r="O36" t="n">
-        <v>64.93</v>
+        <v>61.7</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.53</v>
+        <v>31.85</v>
       </c>
     </row>
     <row r="37">
@@ -2413,46 +2413,46 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>702</v>
+        <v>5310</v>
       </c>
       <c r="E37" t="n">
-        <v>17.45</v>
+        <v>35.67</v>
       </c>
       <c r="F37" t="n">
-        <v>20.56</v>
+        <v>35.74</v>
       </c>
       <c r="G37" t="n">
-        <v>10.36</v>
+        <v>88.54</v>
       </c>
       <c r="H37" t="n">
-        <v>10.62</v>
+        <v>42.36</v>
       </c>
       <c r="I37" t="n">
-        <v>30.25</v>
+        <v>57.41</v>
       </c>
       <c r="J37" t="n">
-        <v>4.18</v>
+        <v>73.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.44</v>
+        <v>29.7</v>
       </c>
       <c r="L37" t="n">
-        <v>81.35</v>
+        <v>4.76</v>
       </c>
       <c r="M37" t="n">
-        <v>6.36</v>
+        <v>16.37</v>
       </c>
       <c r="N37" t="n">
-        <v>10.75</v>
+        <v>4.54</v>
       </c>
       <c r="O37" t="n">
-        <v>18.36</v>
+        <v>33.95</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.33</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="38">
@@ -2466,44 +2466,44 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>246</v>
+        <v>1633</v>
       </c>
       <c r="E38" t="n">
-        <v>18.72</v>
+        <v>34.12</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>69</v>
+        <v>17.26</v>
       </c>
       <c r="H38" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="I38" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="J38" t="n">
+        <v>79.88</v>
+      </c>
+      <c r="K38" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="J38" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9.89</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="M38" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.84</v>
-      </c>
       <c r="O38" t="n">
-        <v>21.83</v>
+        <v>31.78</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>5.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>28.4</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2589,46 +2589,46 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>320</v>
+        <v>16350</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6185</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5750</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>2741</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>11667</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15869</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9162</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11249</v>
       </c>
       <c r="J2" t="n">
-        <v>281</v>
+        <v>96562</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>21508</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4164</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>15526</v>
       </c>
       <c r="O2" t="n">
-        <v>323</v>
+        <v>200415</v>
       </c>
     </row>
     <row r="3">
@@ -2636,46 +2636,46 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>5929</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3838</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3389</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2839</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>9822</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>9610</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4539</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4817</v>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>10882</v>
       </c>
       <c r="K3" t="n">
-        <v>30</v>
+        <v>5011</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1685</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5626</v>
       </c>
       <c r="O3" t="n">
-        <v>155</v>
+        <v>62073</v>
       </c>
     </row>
     <row r="4">
@@ -2683,46 +2683,46 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>276</v>
+        <v>5558</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1790</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>6795</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>9837</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4750</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>5634</v>
       </c>
       <c r="J4" t="n">
-        <v>69</v>
+        <v>11494</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5467</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1406</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6089</v>
       </c>
       <c r="O4" t="n">
-        <v>92</v>
+        <v>58111</v>
       </c>
     </row>
     <row r="5">
@@ -2730,46 +2730,46 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>188</v>
+        <v>5767</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2745</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>2208</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3205</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>8252</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9091</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5468</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>5321</v>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>7350</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3663</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>599</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>7217</v>
       </c>
       <c r="O5" t="n">
-        <v>97</v>
+        <v>55153</v>
       </c>
     </row>
     <row r="6">
@@ -2777,46 +2777,46 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>230</v>
+        <v>3930</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2053</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1785</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>1963</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4771</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>6075</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4402</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>3955</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>2863</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2736</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1438</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>5205</v>
       </c>
       <c r="O6" t="n">
-        <v>67</v>
+        <v>37260</v>
       </c>
     </row>
     <row r="7">
@@ -2824,46 +2824,46 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>272</v>
+        <v>5818</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1872</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>1953</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1925</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11563</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>10948</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>5662</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7988</v>
       </c>
       <c r="J7" t="n">
-        <v>71</v>
+        <v>7194</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3516</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>1484</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>6310</v>
       </c>
       <c r="O7" t="n">
-        <v>147</v>
+        <v>60449</v>
       </c>
     </row>
     <row r="8">
@@ -2871,46 +2871,46 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>449</v>
+        <v>7932</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2583</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>2882</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2881</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>17317</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>12855</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>8758</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>14969</v>
       </c>
       <c r="J8" t="n">
-        <v>111</v>
+        <v>8314</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>5256</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>1582</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>10635</v>
       </c>
       <c r="O8" t="n">
-        <v>177</v>
+        <v>88103</v>
       </c>
     </row>
     <row r="9">
@@ -2918,46 +2918,46 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>609</v>
+        <v>7000</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2979</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3297</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1666</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6245</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>7173</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8348</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>33374</v>
       </c>
       <c r="J9" t="n">
-        <v>129</v>
+        <v>8428</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>3346</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>1770</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>32</v>
+        <v>10406</v>
       </c>
       <c r="O9" t="n">
-        <v>218</v>
+        <v>87053</v>
       </c>
     </row>
     <row r="10">
@@ -2965,46 +2965,46 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>789</v>
+        <v>5442</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4161</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>2638</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>7452</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6639</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>6283</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>8110</v>
       </c>
       <c r="J10" t="n">
-        <v>71</v>
+        <v>3772</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>2598</v>
       </c>
       <c r="L10" t="n">
-        <v>14</v>
+        <v>1268</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N10" t="n">
-        <v>16</v>
+        <v>6942</v>
       </c>
       <c r="O10" t="n">
-        <v>160</v>
+        <v>51880</v>
       </c>
     </row>
     <row r="11">
@@ -3012,46 +3012,46 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>1915</v>
+        <v>5624</v>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>3382</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>2039</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>3173</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>7671</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>8638</v>
       </c>
       <c r="H11" t="n">
-        <v>106</v>
+        <v>6054</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>5070</v>
       </c>
       <c r="J11" t="n">
-        <v>136</v>
+        <v>7813</v>
       </c>
       <c r="K11" t="n">
-        <v>34</v>
+        <v>3451</v>
       </c>
       <c r="L11" t="n">
-        <v>76</v>
+        <v>1193</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N11" t="n">
-        <v>78</v>
+        <v>6871</v>
       </c>
       <c r="O11" t="n">
-        <v>549</v>
+        <v>55413</v>
       </c>
     </row>
     <row r="12">
@@ -3059,46 +3059,46 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>792</v>
+        <v>6213</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>3721</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>2647</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2013</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>11556</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>14914</v>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>5541</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4483</v>
       </c>
       <c r="J12" t="n">
-        <v>85</v>
+        <v>4883</v>
       </c>
       <c r="K12" t="n">
-        <v>28</v>
+        <v>3365</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>1211</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N12" t="n">
-        <v>24</v>
+        <v>6703</v>
       </c>
       <c r="O12" t="n">
-        <v>256</v>
+        <v>61055</v>
       </c>
     </row>
     <row r="13">
@@ -3106,46 +3106,46 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>976</v>
+        <v>6056</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>4232</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3081</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>2987</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>11174</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>11114</v>
       </c>
       <c r="H13" t="n">
-        <v>62</v>
+        <v>7170</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>6100</v>
       </c>
       <c r="J13" t="n">
-        <v>65</v>
+        <v>7112</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>3620</v>
       </c>
       <c r="L13" t="n">
-        <v>44</v>
+        <v>2014</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N13" t="n">
-        <v>38</v>
+        <v>7275</v>
       </c>
       <c r="O13" t="n">
-        <v>256</v>
+        <v>65977</v>
       </c>
     </row>
     <row r="14">
@@ -3153,46 +3153,46 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>1805</v>
+        <v>5427</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>2261</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>3590</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>2467</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>7210</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>7894</v>
       </c>
       <c r="H14" t="n">
-        <v>72</v>
+        <v>6600</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>8540</v>
       </c>
       <c r="J14" t="n">
-        <v>148</v>
+        <v>3935</v>
       </c>
       <c r="K14" t="n">
+        <v>4043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1402</v>
+      </c>
+      <c r="M14" t="n">
         <v>58</v>
       </c>
-      <c r="L14" t="n">
-        <v>49</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" t="n">
-        <v>130</v>
+        <v>5800</v>
       </c>
       <c r="O14" t="n">
-        <v>599</v>
+        <v>53800</v>
       </c>
     </row>
     <row r="15">
@@ -3200,46 +3200,46 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>2352</v>
+        <v>5394</v>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>3425</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>2885</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>2057</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>10340</v>
       </c>
       <c r="G15" t="n">
-        <v>53</v>
+        <v>12030</v>
       </c>
       <c r="H15" t="n">
-        <v>69</v>
+        <v>5077</v>
       </c>
       <c r="I15" t="n">
-        <v>58</v>
+        <v>5131</v>
       </c>
       <c r="J15" t="n">
-        <v>224</v>
+        <v>3552</v>
       </c>
       <c r="K15" t="n">
-        <v>41</v>
+        <v>2746</v>
       </c>
       <c r="L15" t="n">
-        <v>106</v>
+        <v>1743</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="N15" t="n">
-        <v>242</v>
+        <v>5446</v>
       </c>
       <c r="O15" t="n">
-        <v>958</v>
+        <v>55103</v>
       </c>
     </row>
     <row r="16">
@@ -3247,46 +3247,46 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>2750</v>
+        <v>5527</v>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
+        <v>3339</v>
       </c>
       <c r="D16" t="n">
-        <v>109</v>
+        <v>2867</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>1689</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>6017</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>8707</v>
       </c>
       <c r="H16" t="n">
-        <v>161</v>
+        <v>4537</v>
       </c>
       <c r="I16" t="n">
-        <v>98</v>
+        <v>14557</v>
       </c>
       <c r="J16" t="n">
-        <v>149</v>
+        <v>4183</v>
       </c>
       <c r="K16" t="n">
-        <v>204</v>
+        <v>3557</v>
       </c>
       <c r="L16" t="n">
-        <v>256</v>
+        <v>3933</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N16" t="n">
-        <v>167</v>
+        <v>6505</v>
       </c>
       <c r="O16" t="n">
-        <v>1269</v>
+        <v>59986</v>
       </c>
     </row>
     <row r="17">
@@ -3294,46 +3294,46 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>1653</v>
+        <v>5394</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>3462</v>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>2095</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2496</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>8088</v>
       </c>
       <c r="G17" t="n">
-        <v>23</v>
+        <v>8871</v>
       </c>
       <c r="H17" t="n">
-        <v>191</v>
+        <v>5485</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>6961</v>
       </c>
       <c r="J17" t="n">
-        <v>97</v>
+        <v>9727</v>
       </c>
       <c r="K17" t="n">
-        <v>37</v>
+        <v>2486</v>
       </c>
       <c r="L17" t="n">
-        <v>57</v>
+        <v>3080</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>86</v>
+        <v>6651</v>
       </c>
       <c r="O17" t="n">
-        <v>612</v>
+        <v>59423</v>
       </c>
     </row>
     <row r="18">
@@ -3341,46 +3341,46 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>1678</v>
+        <v>5269</v>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>2391</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>2245</v>
       </c>
       <c r="E18" t="n">
+        <v>1853</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7775</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11566</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5297</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6723</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3448</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3829</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2407</v>
+      </c>
+      <c r="M18" t="n">
         <v>47</v>
       </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" t="n">
-        <v>152</v>
-      </c>
-      <c r="I18" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" t="n">
-        <v>83</v>
-      </c>
-      <c r="K18" t="n">
-        <v>73</v>
-      </c>
-      <c r="L18" t="n">
-        <v>33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
       <c r="N18" t="n">
-        <v>76</v>
+        <v>6448</v>
       </c>
       <c r="O18" t="n">
-        <v>601</v>
+        <v>54029</v>
       </c>
     </row>
     <row r="19">
@@ -3388,46 +3388,46 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>2422</v>
+        <v>6370</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>2313</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>2066</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>1753</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>11298</v>
       </c>
       <c r="G19" t="n">
-        <v>77</v>
+        <v>11174</v>
       </c>
       <c r="H19" t="n">
-        <v>1209</v>
+        <v>6758</v>
       </c>
       <c r="I19" t="n">
+        <v>10463</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6073</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3787</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2234</v>
+      </c>
+      <c r="M19" t="n">
         <v>18</v>
       </c>
-      <c r="J19" t="n">
-        <v>142</v>
-      </c>
-      <c r="K19" t="n">
-        <v>66</v>
-      </c>
-      <c r="L19" t="n">
-        <v>35</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>50</v>
+        <v>8024</v>
       </c>
       <c r="O19" t="n">
-        <v>1701</v>
+        <v>65961</v>
       </c>
     </row>
     <row r="20">
@@ -3435,46 +3435,46 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>1921</v>
+        <v>7235</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>1843</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>3402</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>2778</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>9256</v>
       </c>
       <c r="G20" t="n">
-        <v>59</v>
+        <v>7521</v>
       </c>
       <c r="H20" t="n">
-        <v>1185</v>
+        <v>7434</v>
       </c>
       <c r="I20" t="n">
-        <v>111</v>
+        <v>38148</v>
       </c>
       <c r="J20" t="n">
-        <v>112</v>
+        <v>2276</v>
       </c>
       <c r="K20" t="n">
-        <v>80</v>
+        <v>5443</v>
       </c>
       <c r="L20" t="n">
-        <v>39</v>
+        <v>1690</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>48</v>
+        <v>7880</v>
       </c>
       <c r="O20" t="n">
-        <v>1698</v>
+        <v>87709</v>
       </c>
     </row>
     <row r="21">
@@ -3482,46 +3482,46 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>1991</v>
+        <v>8964</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>4404</v>
       </c>
       <c r="D21" t="n">
-        <v>187</v>
+        <v>4355</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>2300</v>
       </c>
       <c r="F21" t="n">
-        <v>515</v>
+        <v>12654</v>
       </c>
       <c r="G21" t="n">
-        <v>299</v>
+        <v>12746</v>
       </c>
       <c r="H21" t="n">
-        <v>75</v>
+        <v>12136</v>
       </c>
       <c r="I21" t="n">
-        <v>114</v>
+        <v>31546</v>
       </c>
       <c r="J21" t="n">
-        <v>98</v>
+        <v>4628</v>
       </c>
       <c r="K21" t="n">
-        <v>36</v>
+        <v>3470</v>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>1979</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N21" t="n">
-        <v>138</v>
+        <v>13637</v>
       </c>
       <c r="O21" t="n">
-        <v>1508</v>
+        <v>103897</v>
       </c>
     </row>
     <row r="22">
@@ -3529,46 +3529,46 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>2329</v>
+        <v>6091</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>2700</v>
       </c>
       <c r="D22" t="n">
-        <v>168</v>
+        <v>2652</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>1953</v>
       </c>
       <c r="F22" t="n">
-        <v>46</v>
+        <v>11019</v>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>8704</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>6597</v>
       </c>
       <c r="I22" t="n">
-        <v>66</v>
+        <v>6063</v>
       </c>
       <c r="J22" t="n">
-        <v>127</v>
+        <v>5749</v>
       </c>
       <c r="K22" t="n">
-        <v>31</v>
+        <v>3384</v>
       </c>
       <c r="L22" t="n">
-        <v>47</v>
+        <v>2012</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
+        <v>10659</v>
       </c>
       <c r="O22" t="n">
-        <v>723</v>
+        <v>61546</v>
       </c>
     </row>
     <row r="23">
@@ -3576,46 +3576,46 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>2054</v>
+        <v>6427</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>3164</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>3261</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>2536</v>
       </c>
       <c r="F23" t="n">
-        <v>97</v>
+        <v>11145</v>
       </c>
       <c r="G23" t="n">
-        <v>101</v>
+        <v>10324</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>7245</v>
       </c>
       <c r="I23" t="n">
-        <v>41</v>
+        <v>6612</v>
       </c>
       <c r="J23" t="n">
-        <v>185</v>
+        <v>2496</v>
       </c>
       <c r="K23" t="n">
-        <v>47</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>78</v>
+        <v>3052</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N23" t="n">
-        <v>116</v>
+        <v>8449</v>
       </c>
       <c r="O23" t="n">
-        <v>799</v>
+        <v>62392</v>
       </c>
     </row>
     <row r="24">
@@ -3623,46 +3623,46 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>1269</v>
+        <v>4993</v>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>2094</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>3150</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>2880</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>6125</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>8109</v>
       </c>
       <c r="H24" t="n">
-        <v>63</v>
+        <v>6263</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>5250</v>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>6209</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>1728</v>
       </c>
       <c r="L24" t="n">
-        <v>78</v>
+        <v>3274</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="N24" t="n">
-        <v>126</v>
+        <v>7311</v>
       </c>
       <c r="O24" t="n">
-        <v>465</v>
+        <v>52497</v>
       </c>
     </row>
     <row r="25">
@@ -3670,46 +3670,46 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>1506</v>
+        <v>5027</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>2150</v>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>2053</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>2360</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>8440</v>
       </c>
       <c r="G25" t="n">
-        <v>61</v>
+        <v>7534</v>
       </c>
       <c r="H25" t="n">
-        <v>120</v>
+        <v>6374</v>
       </c>
       <c r="I25" t="n">
-        <v>34</v>
+        <v>5032</v>
       </c>
       <c r="J25" t="n">
-        <v>114</v>
+        <v>5174</v>
       </c>
       <c r="K25" t="n">
-        <v>92</v>
+        <v>3151</v>
       </c>
       <c r="L25" t="n">
-        <v>48</v>
+        <v>2519</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N25" t="n">
-        <v>93</v>
+        <v>6851</v>
       </c>
       <c r="O25" t="n">
-        <v>648</v>
+        <v>51679</v>
       </c>
     </row>
     <row r="26">
@@ -3717,46 +3717,46 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>3234</v>
+        <v>6021</v>
       </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>3017</v>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>2512</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>2958</v>
       </c>
       <c r="F26" t="n">
-        <v>39</v>
+        <v>9242</v>
       </c>
       <c r="G26" t="n">
-        <v>64</v>
+        <v>7973</v>
       </c>
       <c r="H26" t="n">
-        <v>116</v>
+        <v>7029</v>
       </c>
       <c r="I26" t="n">
-        <v>33</v>
+        <v>5900</v>
       </c>
       <c r="J26" t="n">
-        <v>155</v>
+        <v>7686</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2891</v>
       </c>
       <c r="L26" t="n">
-        <v>30</v>
+        <v>1708</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="N26" t="n">
-        <v>128</v>
+        <v>8600</v>
       </c>
       <c r="O26" t="n">
-        <v>676</v>
+        <v>59630</v>
       </c>
     </row>
     <row r="27">
@@ -3764,46 +3764,46 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>1405</v>
+        <v>6669</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2783</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>3173</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>2943</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>10197</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>12319</v>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>4777</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>6326</v>
       </c>
       <c r="J27" t="n">
-        <v>102</v>
+        <v>19270</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>7980</v>
       </c>
       <c r="L27" t="n">
-        <v>32</v>
+        <v>1724</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="N27" t="n">
-        <v>87</v>
+        <v>10606</v>
       </c>
       <c r="O27" t="n">
-        <v>315</v>
+        <v>82203</v>
       </c>
     </row>
     <row r="28">
@@ -3811,46 +3811,46 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>1848</v>
+        <v>6079</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>3202</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>2907</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>2173</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>11227</v>
       </c>
       <c r="G28" t="n">
-        <v>32</v>
+        <v>11517</v>
       </c>
       <c r="H28" t="n">
-        <v>67</v>
+        <v>5314</v>
       </c>
       <c r="I28" t="n">
-        <v>14</v>
+        <v>5882</v>
       </c>
       <c r="J28" t="n">
-        <v>174</v>
+        <v>4860</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>4007</v>
       </c>
       <c r="L28" t="n">
-        <v>31</v>
+        <v>2237</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N28" t="n">
-        <v>89</v>
+        <v>6778</v>
       </c>
       <c r="O28" t="n">
-        <v>514</v>
+        <v>60249</v>
       </c>
     </row>
     <row r="29">
@@ -3858,46 +3858,46 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>959</v>
+        <v>5740</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>5108</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>2774</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2955</v>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>11203</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>11598</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>6052</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5584</v>
       </c>
       <c r="J29" t="n">
-        <v>67</v>
+        <v>2488</v>
       </c>
       <c r="K29" t="n">
-        <v>24</v>
+        <v>2249</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1985</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="N29" t="n">
-        <v>51</v>
+        <v>7285</v>
       </c>
       <c r="O29" t="n">
-        <v>228</v>
+        <v>59395</v>
       </c>
     </row>
     <row r="30">
@@ -3905,46 +3905,46 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>793</v>
+        <v>5605</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>3348</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1812</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>3609</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>9486</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>7751</v>
       </c>
       <c r="H30" t="n">
-        <v>28</v>
+        <v>4864</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>4970</v>
       </c>
       <c r="J30" t="n">
-        <v>49</v>
+        <v>10228</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>5492</v>
       </c>
       <c r="L30" t="n">
-        <v>25</v>
+        <v>2957</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N30" t="n">
-        <v>14</v>
+        <v>7667</v>
       </c>
       <c r="O30" t="n">
-        <v>157</v>
+        <v>62267</v>
       </c>
     </row>
     <row r="31">
@@ -3952,46 +3952,46 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>904</v>
+        <v>6049</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>2494</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>1869</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>2886</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>8950</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>10482</v>
       </c>
       <c r="H31" t="n">
-        <v>86</v>
+        <v>8517</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>6397</v>
       </c>
       <c r="J31" t="n">
-        <v>57</v>
+        <v>5103</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>3047</v>
       </c>
       <c r="L31" t="n">
-        <v>16</v>
+        <v>1323</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="N31" t="n">
-        <v>20</v>
+        <v>9314</v>
       </c>
       <c r="O31" t="n">
-        <v>238</v>
+        <v>60634</v>
       </c>
     </row>
     <row r="32">
@@ -3999,46 +3999,46 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>964</v>
+        <v>8112</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2187</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>3208</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>2653</v>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>10692</v>
       </c>
       <c r="G32" t="n">
-        <v>104</v>
+        <v>8726</v>
       </c>
       <c r="H32" t="n">
-        <v>44</v>
+        <v>8146</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>22379</v>
       </c>
       <c r="J32" t="n">
-        <v>103</v>
+        <v>14560</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>5332</v>
       </c>
       <c r="L32" t="n">
-        <v>35</v>
+        <v>1882</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>62</v>
+        <v>12303</v>
       </c>
       <c r="O32" t="n">
-        <v>401</v>
+        <v>92078</v>
       </c>
     </row>
     <row r="33">
@@ -4046,46 +4046,46 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>1184</v>
+        <v>7499</v>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>5241</v>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>2652</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>13935</v>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>6336</v>
       </c>
       <c r="H33" t="n">
-        <v>62</v>
+        <v>8539</v>
       </c>
       <c r="I33" t="n">
-        <v>27</v>
+        <v>9175</v>
       </c>
       <c r="J33" t="n">
-        <v>162</v>
+        <v>10727</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>5500</v>
       </c>
       <c r="L33" t="n">
-        <v>27</v>
+        <v>1663</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N33" t="n">
-        <v>33</v>
+        <v>10549</v>
       </c>
       <c r="O33" t="n">
-        <v>446</v>
+        <v>76355</v>
       </c>
     </row>
     <row r="34">
@@ -4093,46 +4093,46 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>1451</v>
+        <v>5889</v>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>5097</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>2470</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>3052</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>10310</v>
       </c>
       <c r="G34" t="n">
-        <v>33</v>
+        <v>9868</v>
       </c>
       <c r="H34" t="n">
-        <v>30</v>
+        <v>6356</v>
       </c>
       <c r="I34" t="n">
-        <v>51</v>
+        <v>5837</v>
       </c>
       <c r="J34" t="n">
-        <v>143</v>
+        <v>3999</v>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>3210</v>
       </c>
       <c r="L34" t="n">
-        <v>27</v>
+        <v>1570</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N34" t="n">
-        <v>78</v>
+        <v>8204</v>
       </c>
       <c r="O34" t="n">
-        <v>470</v>
+        <v>59989</v>
       </c>
     </row>
     <row r="35">
@@ -4140,46 +4140,46 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>874</v>
+        <v>5986</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>3671</v>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
+        <v>1473</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>2313</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>7504</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>7844</v>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>7422</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>11754</v>
       </c>
       <c r="J35" t="n">
-        <v>29</v>
+        <v>2799</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>3931</v>
       </c>
       <c r="L35" t="n">
-        <v>29</v>
+        <v>4211</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="N35" t="n">
-        <v>45</v>
+        <v>9819</v>
       </c>
       <c r="O35" t="n">
-        <v>198</v>
+        <v>62850</v>
       </c>
     </row>
     <row r="36">
@@ -4187,46 +4187,46 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>728</v>
+        <v>5557</v>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>3009</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1769</v>
       </c>
       <c r="E36" t="n">
-        <v>24</v>
+        <v>3182</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>11184</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>11120</v>
       </c>
       <c r="H36" t="n">
-        <v>30</v>
+        <v>7209</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2954</v>
       </c>
       <c r="J36" t="n">
-        <v>31</v>
+        <v>4480</v>
       </c>
       <c r="K36" t="n">
-        <v>14</v>
+        <v>2041</v>
       </c>
       <c r="L36" t="n">
-        <v>44</v>
+        <v>2661</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N36" t="n">
-        <v>36</v>
+        <v>7684</v>
       </c>
       <c r="O36" t="n">
-        <v>218</v>
+        <v>57329</v>
       </c>
     </row>
     <row r="37">
@@ -4234,46 +4234,46 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>702</v>
+        <v>5310</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4339</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>2241</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>2342</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>9495</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>9499</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>5308</v>
       </c>
       <c r="I37" t="n">
-        <v>33</v>
+        <v>4021</v>
       </c>
       <c r="J37" t="n">
-        <v>61</v>
+        <v>6532</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>1177</v>
       </c>
       <c r="L37" t="n">
-        <v>12</v>
+        <v>1647</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N37" t="n">
-        <v>23</v>
+        <v>7170</v>
       </c>
       <c r="O37" t="n">
-        <v>172</v>
+        <v>53855</v>
       </c>
     </row>
     <row r="38">
@@ -4281,46 +4281,46 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>246</v>
+        <v>1633</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>595</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>417</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1514</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
+        <v>4597</v>
       </c>
       <c r="H38" t="n">
-        <v>16</v>
+        <v>3330</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>985</v>
       </c>
       <c r="J38" t="n">
-        <v>27</v>
+        <v>1790</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>485</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>3774</v>
       </c>
       <c r="O38" t="n">
-        <v>91</v>
+        <v>18224</v>
       </c>
     </row>
   </sheetData>
@@ -4374,10 +4374,10 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>20.18</v>
+        <v>24.88</v>
       </c>
       <c r="C2" t="n">
-        <v>21.17</v>
+        <v>26.62</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -4389,14 +4389,14 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>24.9</v>
+        <v>36.73</v>
       </c>
       <c r="C3" t="n">
-        <v>19.11</v>
+        <v>29.52</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>-9.72</v>
+        <v>10.87</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -4406,14 +4406,14 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>6.56</v>
+        <v>30.41</v>
       </c>
       <c r="C4" t="n">
-        <v>13.92</v>
+        <v>29.35</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>-27.18</v>
+        <v>-0.56</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -4423,14 +4423,14 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>16.72</v>
+        <v>28.99</v>
       </c>
       <c r="C5" t="n">
-        <v>19.14</v>
+        <v>26.59</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>37.51</v>
+        <v>-9.41</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -4440,14 +4440,14 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>27.69</v>
+        <v>34.32</v>
       </c>
       <c r="C6" t="n">
-        <v>19.62</v>
+        <v>31.33</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>2.53</v>
+        <v>17.82</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -4457,17 +4457,17 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>25.91</v>
+        <v>26.35</v>
       </c>
       <c r="C7" t="n">
-        <v>28.46</v>
+        <v>31.6</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>45.02</v>
+        <v>0.88</v>
       </c>
       <c r="F7" t="n">
-        <v>136.55</v>
+        <v>20.24</v>
       </c>
       <c r="G7"/>
     </row>
@@ -4476,17 +4476,17 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>13.25</v>
+        <v>30.45</v>
       </c>
       <c r="C8" t="n">
-        <v>13.06</v>
+        <v>35.03</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>-54.1</v>
+        <v>10.85</v>
       </c>
       <c r="F8" t="n">
-        <v>88.66</v>
+        <v>72.69</v>
       </c>
       <c r="G8"/>
     </row>
@@ -4495,17 +4495,17 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4</v>
+        <v>31.38</v>
       </c>
       <c r="C9" t="n">
-        <v>17.39</v>
+        <v>34.46</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>33.14</v>
+        <v>-1.62</v>
       </c>
       <c r="F9" t="n">
-        <v>56.36</v>
+        <v>80.11</v>
       </c>
       <c r="G9"/>
     </row>
@@ -4514,17 +4514,17 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>7.85</v>
+        <v>32.63</v>
       </c>
       <c r="C10" t="n">
-        <v>9.63</v>
+        <v>32.96</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>-44.61</v>
+        <v>-4.37</v>
       </c>
       <c r="F10" t="n">
-        <v>-87.36</v>
+        <v>71.55</v>
       </c>
       <c r="G10"/>
     </row>
@@ -4533,17 +4533,17 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>17.13</v>
+        <v>32.63</v>
       </c>
       <c r="C11" t="n">
-        <v>17.29</v>
+        <v>31.94</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>79.52</v>
+        <v>-3.08</v>
       </c>
       <c r="F11" t="n">
-        <v>-72.41</v>
+        <v>5.84</v>
       </c>
       <c r="G11"/>
     </row>
@@ -4552,17 +4552,17 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>19.59</v>
+        <v>29.41</v>
       </c>
       <c r="C12" t="n">
-        <v>14.42</v>
+        <v>30.6</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>-16.6</v>
+        <v>-4.19</v>
       </c>
       <c r="F12" t="n">
-        <v>-75.73</v>
+        <v>-20.36</v>
       </c>
       <c r="G12"/>
     </row>
@@ -4571,20 +4571,20 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>12.57</v>
+        <v>41.11</v>
       </c>
       <c r="C13" t="n">
-        <v>14.51</v>
+        <v>39.29</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>0.59</v>
+        <v>28.36</v>
       </c>
       <c r="F13" t="n">
-        <v>76.79</v>
+        <v>-2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-49.48</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="14">
@@ -4592,22 +4592,22 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>22.35</v>
+        <v>35.83</v>
       </c>
       <c r="C14" t="n">
-        <v>23.34</v>
+        <v>37.58</v>
       </c>
       <c r="D14" t="n">
-        <v>10.77</v>
+        <v>44.05</v>
       </c>
       <c r="E14" t="n">
-        <v>60.92</v>
+        <v>-4.34</v>
       </c>
       <c r="F14" t="n">
-        <v>93.59</v>
+        <v>36.85</v>
       </c>
       <c r="G14" t="n">
-        <v>-27.34</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="15">
@@ -4615,22 +4615,22 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>32.09</v>
+        <v>43.71</v>
       </c>
       <c r="C15" t="n">
-        <v>26.31</v>
+        <v>36.49</v>
       </c>
       <c r="D15" t="n">
-        <v>28.91</v>
+        <v>18.99</v>
       </c>
       <c r="E15" t="n">
-        <v>12.71</v>
+        <v>-2.89</v>
       </c>
       <c r="F15" t="n">
-        <v>479.84</v>
+        <v>98.48</v>
       </c>
       <c r="G15" t="n">
-        <v>-10.61</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="16">
@@ -4638,22 +4638,22 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>37.2</v>
+        <v>38.96</v>
       </c>
       <c r="C16" t="n">
-        <v>44.55</v>
+        <v>37.9</v>
       </c>
       <c r="D16" t="n">
-        <v>466.87</v>
+        <v>28.1</v>
       </c>
       <c r="E16" t="n">
-        <v>69.33</v>
+        <v>3.85</v>
       </c>
       <c r="F16" t="n">
-        <v>1625.55</v>
+        <v>46.18</v>
       </c>
       <c r="G16" t="n">
-        <v>71.26</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="17">
@@ -4661,22 +4661,22 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3</v>
+        <v>37.51</v>
       </c>
       <c r="C17" t="n">
-        <v>24.72</v>
+        <v>35.11</v>
       </c>
       <c r="D17" t="n">
-        <v>33.36</v>
+        <v>29.4</v>
       </c>
       <c r="E17" t="n">
-        <v>-44.52</v>
+        <v>-7.35</v>
       </c>
       <c r="F17" t="n">
-        <v>1017.74</v>
+        <v>7.79</v>
       </c>
       <c r="G17" t="n">
-        <v>96.55</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="18">
@@ -4684,22 +4684,22 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>30.92</v>
+        <v>34.13</v>
       </c>
       <c r="C18" t="n">
-        <v>22.86</v>
+        <v>31.14</v>
       </c>
       <c r="D18" t="n">
-        <v>11.67</v>
+        <v>-0.55</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.53</v>
+        <v>-11.31</v>
       </c>
       <c r="F18" t="n">
-        <v>325.02</v>
+        <v>-28.74</v>
       </c>
       <c r="G18" t="n">
-        <v>143</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="19">
@@ -4707,22 +4707,22 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>19.11</v>
+        <v>27.32</v>
       </c>
       <c r="C19" t="n">
-        <v>21.65</v>
+        <v>32.57</v>
       </c>
       <c r="D19" t="n">
-        <v>-26.27</v>
+        <v>3.68</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.27</v>
+        <v>4.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-70.84</v>
+        <v>-39.31</v>
       </c>
       <c r="G19" t="n">
-        <v>258.58</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="20">
@@ -4730,22 +4730,22 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>30.24</v>
+        <v>31.03</v>
       </c>
       <c r="C20" t="n">
-        <v>30.05</v>
+        <v>35.61</v>
       </c>
       <c r="D20" t="n">
-        <v>128.24</v>
+        <v>1.9</v>
       </c>
       <c r="E20" t="n">
-        <v>38.79</v>
+        <v>9.32</v>
       </c>
       <c r="F20" t="n">
-        <v>-62.97</v>
+        <v>-32.31</v>
       </c>
       <c r="G20" t="n">
-        <v>210.28</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="21">
@@ -4753,22 +4753,22 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>39.07</v>
+        <v>32.87</v>
       </c>
       <c r="C21" t="n">
-        <v>41.06</v>
+        <v>35.95</v>
       </c>
       <c r="D21" t="n">
-        <v>153.76</v>
+        <v>4.75</v>
       </c>
       <c r="E21" t="n">
-        <v>36.64</v>
+        <v>0.97</v>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>-0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>207.07</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="22">
@@ -4776,22 +4776,22 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>21.68</v>
+        <v>32.73</v>
       </c>
       <c r="C22" t="n">
-        <v>23.46</v>
+        <v>33.06</v>
       </c>
       <c r="D22" t="n">
-        <v>176.26</v>
+        <v>0.3</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.85</v>
+        <v>-8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>248.38</v>
+        <v>25.58</v>
       </c>
       <c r="G22" t="n">
-        <v>36.06</v>
+        <v>-9.45</v>
       </c>
     </row>
     <row r="23">
@@ -4799,22 +4799,22 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>23.33</v>
+        <v>36.59</v>
       </c>
       <c r="C23" t="n">
-        <v>23.5</v>
+        <v>35.9</v>
       </c>
       <c r="D23" t="n">
-        <v>36.21</v>
+        <v>12.12</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13</v>
+        <v>8.59</v>
       </c>
       <c r="F23" t="n">
-        <v>94.24</v>
+        <v>24.44</v>
       </c>
       <c r="G23" t="n">
-        <v>20.91</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="24">
@@ -4822,22 +4822,22 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>30.29</v>
+        <v>44.02</v>
       </c>
       <c r="C24" t="n">
-        <v>25.12</v>
+        <v>45.21</v>
       </c>
       <c r="D24" t="n">
-        <v>54.62</v>
+        <v>49.67</v>
       </c>
       <c r="E24" t="n">
-        <v>6.92</v>
+        <v>25.96</v>
       </c>
       <c r="F24" t="n">
-        <v>-63.54</v>
+        <v>44.45</v>
       </c>
       <c r="G24" t="n">
-        <v>11.25</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25">
@@ -4845,22 +4845,22 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>24.6</v>
+        <v>36.31</v>
       </c>
       <c r="C25" t="n">
-        <v>26.54</v>
+        <v>34.49</v>
       </c>
       <c r="D25" t="n">
-        <v>95.68</v>
+        <v>-11.67</v>
       </c>
       <c r="E25" t="n">
-        <v>5.63</v>
+        <v>-23.72</v>
       </c>
       <c r="F25" t="n">
-        <v>-60.12</v>
+        <v>49.04</v>
       </c>
       <c r="G25" t="n">
-        <v>7.86</v>
+        <v>9.13</v>
       </c>
     </row>
     <row r="26">
@@ -4868,22 +4868,22 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>11.99</v>
+        <v>33.41</v>
       </c>
       <c r="C26" t="n">
-        <v>12.98</v>
+        <v>35.16</v>
       </c>
       <c r="D26" t="n">
-        <v>-46.37</v>
+        <v>-6.76</v>
       </c>
       <c r="E26" t="n">
-        <v>-51.09</v>
+        <v>1.94</v>
       </c>
       <c r="F26" t="n">
-        <v>-70.92</v>
+        <v>43.69</v>
       </c>
       <c r="G26" t="n">
-        <v>-19.49</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="27">
@@ -4891,22 +4891,22 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>15.37</v>
+        <v>40.31</v>
       </c>
       <c r="C27" t="n">
-        <v>9.59</v>
+        <v>33.09</v>
       </c>
       <c r="D27" t="n">
-        <v>-52.11</v>
+        <v>-7.78</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.13</v>
+        <v>-5.88</v>
       </c>
       <c r="F27" t="n">
-        <v>-78.46</v>
+        <v>-34.42</v>
       </c>
       <c r="G27" t="n">
-        <v>-57.04</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="28">
@@ -4914,22 +4914,22 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>16.33</v>
+        <v>34.02</v>
       </c>
       <c r="C28" t="n">
-        <v>23.68</v>
+        <v>32.96</v>
       </c>
       <c r="D28" t="n">
-        <v>-56.11</v>
+        <v>-12.68</v>
       </c>
       <c r="E28" t="n">
-        <v>146.99</v>
+        <v>-0.4</v>
       </c>
       <c r="F28" t="n">
-        <v>-85.66</v>
+        <v>-41.24</v>
       </c>
       <c r="G28" t="n">
-        <v>-45.06</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="29">
@@ -4937,22 +4937,22 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>13.49</v>
+        <v>41.95</v>
       </c>
       <c r="C29" t="n">
-        <v>15.92</v>
+        <v>39.55</v>
       </c>
       <c r="D29" t="n">
-        <v>-39.48</v>
+        <v>11.84</v>
       </c>
       <c r="E29" t="n">
-        <v>-32.8</v>
+        <v>20.01</v>
       </c>
       <c r="F29" t="n">
-        <v>-66.47</v>
+        <v>-28.53</v>
       </c>
       <c r="G29" t="n">
-        <v>-50.98</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="30">
@@ -4960,22 +4960,22 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>10.29</v>
+        <v>42.18</v>
       </c>
       <c r="C30" t="n">
-        <v>2.23</v>
+        <v>39.2</v>
       </c>
       <c r="D30" t="n">
-        <v>-66.71</v>
+        <v>23.61</v>
       </c>
       <c r="E30" t="n">
-        <v>-85.97</v>
+        <v>-0.9</v>
       </c>
       <c r="F30" t="n">
-        <v>-47.34</v>
+        <v>39.8</v>
       </c>
       <c r="G30" t="n">
-        <v>-69.57</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="31">
@@ -4983,22 +4983,22 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>12.71</v>
+        <v>33.31</v>
       </c>
       <c r="C31" t="n">
-        <v>15.25</v>
+        <v>38.56</v>
       </c>
       <c r="D31" t="n">
-        <v>-33.5</v>
+        <v>21.9</v>
       </c>
       <c r="E31" t="n">
-        <v>583.09</v>
+        <v>-1.63</v>
       </c>
       <c r="F31" t="n">
-        <v>-72.8</v>
+        <v>80.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-77.98</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="32">
@@ -5006,22 +5006,22 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>18.61</v>
+        <v>28.01</v>
       </c>
       <c r="C32" t="n">
-        <v>18.43</v>
+        <v>32.59</v>
       </c>
       <c r="D32" t="n">
-        <v>-38.44</v>
+        <v>-9.74</v>
       </c>
       <c r="E32" t="n">
-        <v>20.82</v>
+        <v>-15.49</v>
       </c>
       <c r="F32" t="n">
-        <v>-71.58</v>
+        <v>19.18</v>
       </c>
       <c r="G32" t="n">
-        <v>-68.92</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="33">
@@ -5029,22 +5029,22 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>16.88</v>
+        <v>30.43</v>
       </c>
       <c r="C33" t="n">
-        <v>18.88</v>
+        <v>33.51</v>
       </c>
       <c r="D33" t="n">
-        <v>-56.79</v>
+        <v>-7.44</v>
       </c>
       <c r="E33" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="F33" t="n">
-        <v>149.18</v>
+        <v>-22.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-39.34</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="34">
@@ -5052,22 +5052,22 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>24.41</v>
+        <v>38.53</v>
       </c>
       <c r="C34" t="n">
-        <v>26.19</v>
+        <v>38.85</v>
       </c>
       <c r="D34" t="n">
-        <v>12.58</v>
+        <v>17.71</v>
       </c>
       <c r="E34" t="n">
-        <v>38.75</v>
+        <v>15.95</v>
       </c>
       <c r="F34" t="n">
-        <v>1205.92</v>
+        <v>-35.94</v>
       </c>
       <c r="G34" t="n">
-        <v>-36.3</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="35">
@@ -5075,22 +5075,22 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>19.37</v>
+        <v>38.29</v>
       </c>
       <c r="C35" t="n">
-        <v>19.53</v>
+        <v>37.6</v>
       </c>
       <c r="D35" t="n">
-        <v>-16.98</v>
+        <v>4.65</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.42</v>
+        <v>-3.24</v>
       </c>
       <c r="F35" t="n">
-        <v>947.08</v>
+        <v>-1.38</v>
       </c>
       <c r="G35" t="n">
-        <v>-22.02</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="36">
@@ -5098,22 +5098,22 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>25.51</v>
+        <v>37.43</v>
       </c>
       <c r="C36" t="n">
-        <v>20.34</v>
+        <v>38.62</v>
       </c>
       <c r="D36" t="n">
-        <v>-15.77</v>
+        <v>-14.98</v>
       </c>
       <c r="E36" t="n">
-        <v>4.15</v>
+        <v>2.72</v>
       </c>
       <c r="F36" t="n">
-        <v>149.73</v>
+        <v>46.16</v>
       </c>
       <c r="G36" t="n">
-        <v>70.17</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="37">
@@ -5121,22 +5121,22 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>17.45</v>
+        <v>35.67</v>
       </c>
       <c r="C37" t="n">
-        <v>19.39</v>
+        <v>33.85</v>
       </c>
       <c r="D37" t="n">
-        <v>-29.06</v>
+        <v>-1.76</v>
       </c>
       <c r="E37" t="n">
-        <v>-4.7</v>
+        <v>-12.36</v>
       </c>
       <c r="F37" t="n">
-        <v>-24.1</v>
+        <v>20.96</v>
       </c>
       <c r="G37" t="n">
-        <v>137.53</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="38">
@@ -5144,22 +5144,22 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>18.72</v>
+        <v>34.12</v>
       </c>
       <c r="C38" t="n">
-        <v>19.72</v>
+        <v>35.87</v>
       </c>
       <c r="D38" t="n">
-        <v>56.19</v>
+        <v>2.12</v>
       </c>
       <c r="E38" t="n">
-        <v>1.69</v>
+        <v>5.96</v>
       </c>
       <c r="F38" t="n">
-        <v>-28.3</v>
+        <v>-5.78</v>
       </c>
       <c r="G38" t="n">
-        <v>112.48</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
@@ -5240,37 +5240,37 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0537331283241918</v>
+        <v>0.10498349230854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.304095068540018</v>
+        <v>0.334675493542586</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0847334116545621</v>
+        <v>0.249973179728543</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0317530013494531</v>
+        <v>-0.0860964285199535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0677701823260093</v>
+        <v>-0.332904229494784</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.224693995052988</v>
+        <v>-0.214464587592635</v>
       </c>
       <c r="I2" t="n">
-        <v>0.158511246032603</v>
+        <v>-0.287701096419152</v>
       </c>
       <c r="J2" t="n">
-        <v>0.414059359050475</v>
+        <v>0.149880326203504</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0702784980257502</v>
+        <v>0.161277969647938</v>
       </c>
       <c r="L2" t="n">
-        <v>0.489233546436388</v>
+        <v>-0.124786650740267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.548512064758017</v>
+        <v>0.50696961823853</v>
       </c>
     </row>
     <row r="3">
@@ -5278,40 +5278,40 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0537331283241918</v>
+        <v>0.10498349230854</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0629844790845496</v>
+        <v>0.117431035540934</v>
       </c>
       <c r="E3" t="n">
-        <v>0.543594063456463</v>
+        <v>-0.0600773611423872</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.000179936917031617</v>
+        <v>-0.233406937735477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.328733375525943</v>
+        <v>0.133208031669675</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0280704780561934</v>
+        <v>-0.139601537920441</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0288000277091055</v>
+        <v>0.0393827417680677</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0327855935474588</v>
+        <v>0.0274800100202417</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0306825629744038</v>
+        <v>0.186508584695468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0744668584290405</v>
+        <v>-0.402206211933834</v>
       </c>
       <c r="M3" t="n">
-        <v>0.455312723220623</v>
+        <v>0.378565034495836</v>
       </c>
     </row>
     <row r="4">
@@ -5319,40 +5319,40 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.304095068540018</v>
+        <v>0.334675493542586</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0629844790845496</v>
+        <v>0.117431035540934</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0317238763538321</v>
+        <v>0.23620903569431</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0226399905476623</v>
+        <v>-0.000892895565537634</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.103043036606476</v>
+        <v>-0.377500097185783</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.116397876207492</v>
+        <v>-0.21270953431889</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0714737494476541</v>
+        <v>-0.0962601121216334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.179851585274468</v>
+        <v>0.207391198943416</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0580497763855755</v>
+        <v>0.0951188594930024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0728370898971611</v>
+        <v>-0.0854044328865907</v>
       </c>
       <c r="M4" t="n">
-        <v>0.318277667531143</v>
+        <v>0.579913179217282</v>
       </c>
     </row>
     <row r="5">
@@ -5360,40 +5360,40 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0847334116545621</v>
+        <v>0.249973179728543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543594063456463</v>
+        <v>-0.0600773611423872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0317238763538321</v>
+        <v>0.23620903569431</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0115776273599476</v>
+        <v>0.118297507818534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.371055697967703</v>
+        <v>-0.517064093924602</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.144590123769887</v>
+        <v>-0.390854522571627</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04281680336367</v>
+        <v>-0.356270599191343</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.105031288441004</v>
+        <v>-0.00783518415365828</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0433265481324571</v>
+        <v>0.320521508036116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.215023811349521</v>
+        <v>-0.00503151599035227</v>
       </c>
       <c r="M5" t="n">
-        <v>0.417819647779198</v>
+        <v>0.287896752099547</v>
       </c>
     </row>
     <row r="6">
@@ -5401,40 +5401,40 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0317530013494531</v>
+        <v>-0.0860964285199535</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.000179936917031617</v>
+        <v>-0.233406937735477</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0226399905476623</v>
+        <v>-0.000892895565537634</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0115776273599476</v>
+        <v>0.118297507818534</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.256605643172073</v>
+        <v>0.0516510726617396</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.175459303588568</v>
+        <v>-0.478723836330062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.135800448386203</v>
+        <v>-0.689843384220691</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0328869826754993</v>
+        <v>0.0422121084793762</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0876619347716646</v>
+        <v>-0.0139767572209236</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.246538143638372</v>
+        <v>0.732839410923235</v>
       </c>
       <c r="M6" t="n">
-        <v>0.191849865452189</v>
+        <v>0.0976269203094903</v>
       </c>
     </row>
     <row r="7">
@@ -5442,40 +5442,40 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0677701823260093</v>
+        <v>-0.332904229494784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328733375525943</v>
+        <v>0.133208031669675</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.103043036606476</v>
+        <v>-0.377500097185783</v>
       </c>
       <c r="E7" t="n">
-        <v>0.371055697967703</v>
+        <v>-0.517064093924602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.256605643172073</v>
+        <v>0.0516510726617396</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.339790656122154</v>
+        <v>-0.22386311601457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0517964960536026</v>
+        <v>-0.0366387201733942</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00128404293356799</v>
+        <v>-0.0723659982256001</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0873615314411984</v>
+        <v>-0.154634530182394</v>
       </c>
       <c r="L7" t="n">
-        <v>0.28099217208853</v>
+        <v>0.0024567064721758</v>
       </c>
       <c r="M7" t="n">
-        <v>0.523082305267973</v>
+        <v>-0.22307300825243</v>
       </c>
     </row>
     <row r="8">
@@ -5483,40 +5483,40 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.224693995052988</v>
+        <v>-0.214464587592635</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0280704780561934</v>
+        <v>-0.139601537920441</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.116397876207492</v>
+        <v>-0.21270953431889</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.144590123769887</v>
+        <v>-0.390854522571627</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.175459303588568</v>
+        <v>-0.478723836330062</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.339790656122154</v>
+        <v>-0.22386311601457</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.261450739867375</v>
+        <v>0.659074728064751</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.317263456412053</v>
+        <v>-0.155329333122405</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0705618044330777</v>
+        <v>-0.176763080503444</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.210282228253967</v>
+        <v>-0.17006443201859</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.119255969147005</v>
+        <v>-0.281219892786792</v>
       </c>
     </row>
     <row r="9">
@@ -5524,40 +5524,40 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158511246032603</v>
+        <v>-0.287701096419152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0288000277091055</v>
+        <v>0.0393827417680677</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0714737494476541</v>
+        <v>-0.0962601121216334</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04281680336367</v>
+        <v>-0.356270599191343</v>
       </c>
       <c r="F9" t="n">
-        <v>0.135800448386203</v>
+        <v>-0.689843384220691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0517964960536026</v>
+        <v>-0.0366387201733942</v>
       </c>
       <c r="H9" t="n">
-        <v>0.261450739867375</v>
+        <v>0.659074728064751</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.121337623086451</v>
+        <v>-0.101337887985341</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0326899257887901</v>
+        <v>-0.144471190443222</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.126657974373561</v>
+        <v>-0.410210933760226</v>
       </c>
       <c r="M9" t="n">
-        <v>0.364584107444188</v>
+        <v>-0.190389262534625</v>
       </c>
     </row>
     <row r="10">
@@ -5565,40 +5565,40 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.414059359050475</v>
+        <v>0.149880326203504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0327855935474588</v>
+        <v>0.0274800100202417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.179851585274468</v>
+        <v>0.207391198943416</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.105031288441004</v>
+        <v>-0.00783518415365828</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0328869826754993</v>
+        <v>0.0422121084793762</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00128404293356799</v>
+        <v>-0.0723659982256001</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.317263456412053</v>
+        <v>-0.155329333122405</v>
       </c>
       <c r="I10" t="n">
-        <v>0.121337623086451</v>
+        <v>-0.101337887985341</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.245183196952376</v>
+        <v>0.0927250327813378</v>
       </c>
       <c r="L10" t="n">
-        <v>0.34085522745923</v>
+        <v>0.0932048362758805</v>
       </c>
       <c r="M10" t="n">
-        <v>0.373503602755556</v>
+        <v>0.581271966286593</v>
       </c>
     </row>
     <row r="11">
@@ -5606,40 +5606,40 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0702784980257502</v>
+        <v>0.161277969647938</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0306825629744038</v>
+        <v>0.186508584695468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0580497763855755</v>
+        <v>0.0951188594930024</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0433265481324571</v>
+        <v>0.320521508036116</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0876619347716646</v>
+        <v>-0.0139767572209236</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0873615314411984</v>
+        <v>-0.154634530182394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0705618044330777</v>
+        <v>-0.176763080503444</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0326899257887901</v>
+        <v>-0.144471190443222</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.245183196952376</v>
+        <v>0.0927250327813378</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0786629782429011</v>
+        <v>-0.120102109804056</v>
       </c>
       <c r="M11" t="n">
-        <v>0.180374901917698</v>
+        <v>0.467714590187007</v>
       </c>
     </row>
     <row r="12">
@@ -5647,40 +5647,40 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.489233546436388</v>
+        <v>-0.124786650740267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0744668584290405</v>
+        <v>-0.402206211933834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0728370898971611</v>
+        <v>-0.0854044328865907</v>
       </c>
       <c r="E12" t="n">
-        <v>0.215023811349521</v>
+        <v>-0.00503151599035227</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.246538143638372</v>
+        <v>0.732839410923235</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28099217208853</v>
+        <v>0.0024567064721758</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.210282228253967</v>
+        <v>-0.17006443201859</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.126657974373561</v>
+        <v>-0.410210933760226</v>
       </c>
       <c r="J12" t="n">
-        <v>0.34085522745923</v>
+        <v>0.0932048362758805</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0786629782429011</v>
+        <v>-0.120102109804056</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.56675812649993</v>
+        <v>0.103034567971794</v>
       </c>
     </row>
     <row r="13">
@@ -5688,37 +5688,37 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>0.548512064758017</v>
+        <v>0.50696961823853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455312723220623</v>
+        <v>0.378565034495836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318277667531143</v>
+        <v>0.579913179217282</v>
       </c>
       <c r="E13" t="n">
-        <v>0.417819647779198</v>
+        <v>0.287896752099547</v>
       </c>
       <c r="F13" t="n">
-        <v>0.191849865452189</v>
+        <v>0.0976269203094903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.523082305267973</v>
+        <v>-0.22307300825243</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.119255969147005</v>
+        <v>-0.281219892786792</v>
       </c>
       <c r="I13" t="n">
-        <v>0.364584107444188</v>
+        <v>-0.190389262534625</v>
       </c>
       <c r="J13" t="n">
-        <v>0.373503602755556</v>
+        <v>0.581271966286593</v>
       </c>
       <c r="K13" t="n">
-        <v>0.180374901917698</v>
+        <v>0.467714590187007</v>
       </c>
       <c r="L13" t="n">
-        <v>0.56675812649993</v>
+        <v>0.103034567971794</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
